--- a/free market/players.xlsx
+++ b/free market/players.xlsx
@@ -10,6 +10,9 @@
     <sheet name="Result 1" sheetId="1" r:id="rId1"/>
     <sheet name="Query" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Result 1'!$A$1:$C$152</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2001,16 +2004,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:C$1048576"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="1" max="1" width="21.5454545454545" customWidth="1"/>
+    <col min="2" max="2" width="11.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2024,7 +2028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" hidden="1" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2035,7 +2039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" hidden="1" spans="1:3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2046,7 +2050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" hidden="1" spans="1:3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2057,7 +2061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" hidden="1" spans="1:3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2068,7 +2072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" hidden="1" spans="1:3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2079,7 +2083,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" hidden="1" spans="1:3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2090,7 +2094,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" hidden="1" spans="1:3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2101,7 +2105,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" hidden="1" spans="1:3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2112,7 +2116,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" hidden="1" spans="1:3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2123,7 +2127,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" hidden="1" spans="1:3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2134,7 +2138,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" hidden="1" spans="1:3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2145,7 +2149,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" hidden="1" spans="1:3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2156,7 +2160,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" hidden="1" spans="1:3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2167,7 +2171,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" hidden="1" spans="1:3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -2178,7 +2182,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" hidden="1" spans="1:3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -2189,7 +2193,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" hidden="1" spans="1:3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -2200,7 +2204,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" hidden="1" spans="1:3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -2211,7 +2215,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" hidden="1" spans="1:3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -2222,7 +2226,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" hidden="1" spans="1:3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2233,7 +2237,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" hidden="1" spans="1:3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -2244,7 +2248,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" hidden="1" spans="1:3">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -2255,7 +2259,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" hidden="1" spans="1:3">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2277,7 +2281,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" hidden="1" spans="1:3">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -2288,7 +2292,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" hidden="1" spans="1:3">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -2299,7 +2303,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" hidden="1" spans="1:3">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -2310,7 +2314,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" hidden="1" spans="1:3">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -2321,7 +2325,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" hidden="1" spans="1:3">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -2332,7 +2336,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" hidden="1" spans="1:3">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -2343,7 +2347,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" hidden="1" spans="1:3">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -2354,7 +2358,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" hidden="1" spans="1:3">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -2365,7 +2369,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" hidden="1" spans="1:3">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -2376,7 +2380,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" hidden="1" spans="1:3">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -2387,7 +2391,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" hidden="1" spans="1:3">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -2398,7 +2402,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" hidden="1" spans="1:3">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -2409,7 +2413,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" hidden="1" spans="1:3">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -2420,7 +2424,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" hidden="1" spans="1:3">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -2431,7 +2435,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" ht="13" hidden="1" customHeight="1" spans="1:3">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -2442,7 +2446,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" hidden="1" spans="1:3">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -2453,7 +2457,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" hidden="1" spans="1:3">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -2464,7 +2468,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" hidden="1" spans="1:3">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -2475,7 +2479,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" hidden="1" spans="1:3">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -2486,7 +2490,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" hidden="1" spans="1:3">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -2497,7 +2501,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" hidden="1" spans="1:3">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -2508,7 +2512,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" hidden="1" spans="1:3">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -2519,7 +2523,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" hidden="1" spans="1:3">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -2530,7 +2534,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" hidden="1" spans="1:3">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -2541,7 +2545,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" hidden="1" spans="1:3">
       <c r="A49" t="s">
         <v>94</v>
       </c>
@@ -2552,7 +2556,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" hidden="1" spans="1:3">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -2563,7 +2567,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" hidden="1" spans="1:3">
       <c r="A51" t="s">
         <v>97</v>
       </c>
@@ -2574,7 +2578,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" hidden="1" spans="1:3">
       <c r="A52" t="s">
         <v>99</v>
       </c>
@@ -2585,7 +2589,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" hidden="1" spans="1:3">
       <c r="A53" t="s">
         <v>101</v>
       </c>
@@ -2596,7 +2600,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" hidden="1" spans="1:3">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -2607,7 +2611,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" hidden="1" spans="1:3">
       <c r="A55" t="s">
         <v>105</v>
       </c>
@@ -2618,7 +2622,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" hidden="1" spans="1:3">
       <c r="A56" t="s">
         <v>107</v>
       </c>
@@ -2629,7 +2633,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" hidden="1" spans="1:3">
       <c r="A57" t="s">
         <v>109</v>
       </c>
@@ -2640,7 +2644,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" hidden="1" spans="1:3">
       <c r="A58" t="s">
         <v>111</v>
       </c>
@@ -2651,7 +2655,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" hidden="1" spans="1:3">
       <c r="A59" t="s">
         <v>113</v>
       </c>
@@ -2662,7 +2666,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" hidden="1" spans="1:3">
       <c r="A60" t="s">
         <v>115</v>
       </c>
@@ -2673,7 +2677,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" hidden="1" spans="1:3">
       <c r="A61" t="s">
         <v>117</v>
       </c>
@@ -2684,7 +2688,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" hidden="1" spans="1:3">
       <c r="A62" t="s">
         <v>119</v>
       </c>
@@ -2695,7 +2699,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" hidden="1" spans="1:3">
       <c r="A63" t="s">
         <v>121</v>
       </c>
@@ -2706,7 +2710,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" hidden="1" spans="1:3">
       <c r="A64" t="s">
         <v>123</v>
       </c>
@@ -2717,7 +2721,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" hidden="1" spans="1:3">
       <c r="A65" t="s">
         <v>125</v>
       </c>
@@ -2728,7 +2732,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" hidden="1" spans="1:3">
       <c r="A66" t="s">
         <v>126</v>
       </c>
@@ -2739,7 +2743,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" hidden="1" spans="1:3">
       <c r="A67" t="s">
         <v>128</v>
       </c>
@@ -2750,7 +2754,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" hidden="1" spans="1:3">
       <c r="A68" t="s">
         <v>130</v>
       </c>
@@ -2761,7 +2765,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" hidden="1" spans="1:3">
       <c r="A69" t="s">
         <v>132</v>
       </c>
@@ -2772,7 +2776,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" hidden="1" spans="1:3">
       <c r="A70" t="s">
         <v>134</v>
       </c>
@@ -2783,7 +2787,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" hidden="1" spans="1:3">
       <c r="A71" t="s">
         <v>136</v>
       </c>
@@ -2794,7 +2798,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" hidden="1" spans="1:3">
       <c r="A72" t="s">
         <v>137</v>
       </c>
@@ -2805,7 +2809,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" hidden="1" spans="1:3">
       <c r="A73" t="s">
         <v>139</v>
       </c>
@@ -2816,7 +2820,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" hidden="1" spans="1:3">
       <c r="A74" t="s">
         <v>140</v>
       </c>
@@ -2827,7 +2831,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" hidden="1" spans="1:3">
       <c r="A75" t="s">
         <v>103</v>
       </c>
@@ -2838,7 +2842,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" hidden="1" spans="1:3">
       <c r="A76" t="s">
         <v>143</v>
       </c>
@@ -2849,7 +2853,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" hidden="1" spans="1:3">
       <c r="A77" t="s">
         <v>145</v>
       </c>
@@ -2860,7 +2864,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" hidden="1" spans="1:3">
       <c r="A78" t="s">
         <v>147</v>
       </c>
@@ -2871,7 +2875,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" hidden="1" spans="1:3">
       <c r="A79" t="s">
         <v>149</v>
       </c>
@@ -2882,7 +2886,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" hidden="1" spans="1:3">
       <c r="A80" t="s">
         <v>151</v>
       </c>
@@ -2893,7 +2897,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" hidden="1" spans="1:3">
       <c r="A81" t="s">
         <v>153</v>
       </c>
@@ -2904,7 +2908,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" hidden="1" spans="1:3">
       <c r="A82" t="s">
         <v>154</v>
       </c>
@@ -2915,7 +2919,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" hidden="1" spans="1:3">
       <c r="A83" t="s">
         <v>155</v>
       </c>
@@ -2926,7 +2930,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" hidden="1" spans="1:3">
       <c r="A84" t="s">
         <v>157</v>
       </c>
@@ -2937,7 +2941,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" hidden="1" spans="1:3">
       <c r="A85" t="s">
         <v>159</v>
       </c>
@@ -2948,7 +2952,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" hidden="1" spans="1:3">
       <c r="A86" t="s">
         <v>161</v>
       </c>
@@ -2959,7 +2963,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" hidden="1" spans="1:3">
       <c r="A87" t="s">
         <v>162</v>
       </c>
@@ -2970,7 +2974,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" hidden="1" spans="1:3">
       <c r="A88" t="s">
         <v>163</v>
       </c>
@@ -2981,7 +2985,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" hidden="1" spans="1:3">
       <c r="A89" t="s">
         <v>165</v>
       </c>
@@ -2992,7 +2996,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" hidden="1" spans="1:3">
       <c r="A90" t="s">
         <v>167</v>
       </c>
@@ -3003,7 +3007,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" hidden="1" spans="1:3">
       <c r="A91" t="s">
         <v>169</v>
       </c>
@@ -3014,7 +3018,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" hidden="1" spans="1:3">
       <c r="A92" t="s">
         <v>170</v>
       </c>
@@ -3025,7 +3029,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" hidden="1" spans="1:3">
       <c r="A93" t="s">
         <v>172</v>
       </c>
@@ -3036,7 +3040,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" hidden="1" spans="1:3">
       <c r="A94" t="s">
         <v>174</v>
       </c>
@@ -3047,7 +3051,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" hidden="1" spans="1:3">
       <c r="A95" t="s">
         <v>176</v>
       </c>
@@ -3058,7 +3062,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" hidden="1" spans="1:3">
       <c r="A96" t="s">
         <v>178</v>
       </c>
@@ -3069,7 +3073,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" hidden="1" spans="1:3">
       <c r="A97" t="s">
         <v>180</v>
       </c>
@@ -3080,7 +3084,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" hidden="1" spans="1:3">
       <c r="A98" t="s">
         <v>182</v>
       </c>
@@ -3091,7 +3095,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" hidden="1" spans="1:3">
       <c r="A99" t="s">
         <v>184</v>
       </c>
@@ -3102,7 +3106,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" hidden="1" spans="1:3">
       <c r="A100" t="s">
         <v>186</v>
       </c>
@@ -3113,7 +3117,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" hidden="1" spans="1:3">
       <c r="A101" t="s">
         <v>187</v>
       </c>
@@ -3124,7 +3128,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" hidden="1" spans="1:3">
       <c r="A102" t="s">
         <v>163</v>
       </c>
@@ -3135,7 +3139,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" hidden="1" spans="1:3">
       <c r="A103" t="s">
         <v>190</v>
       </c>
@@ -3146,7 +3150,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" hidden="1" spans="1:3">
       <c r="A104" t="s">
         <v>192</v>
       </c>
@@ -3157,7 +3161,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" hidden="1" spans="1:3">
       <c r="A105" t="s">
         <v>194</v>
       </c>
@@ -3168,7 +3172,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" hidden="1" spans="1:3">
       <c r="A106" t="s">
         <v>195</v>
       </c>
@@ -3179,7 +3183,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" hidden="1" spans="1:3">
       <c r="A107" t="s">
         <v>196</v>
       </c>
@@ -3190,7 +3194,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" hidden="1" spans="1:3">
       <c r="A108" t="s">
         <v>198</v>
       </c>
@@ -3201,7 +3205,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" hidden="1" spans="1:3">
       <c r="A109" t="s">
         <v>200</v>
       </c>
@@ -3212,7 +3216,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" hidden="1" spans="1:3">
       <c r="A110" t="s">
         <v>202</v>
       </c>
@@ -3223,7 +3227,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" hidden="1" spans="1:3">
       <c r="A111" t="s">
         <v>204</v>
       </c>
@@ -3234,7 +3238,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" hidden="1" spans="1:3">
       <c r="A112" t="s">
         <v>205</v>
       </c>
@@ -3245,7 +3249,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" hidden="1" spans="1:3">
       <c r="A113" t="s">
         <v>207</v>
       </c>
@@ -3256,7 +3260,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" hidden="1" spans="1:3">
       <c r="A114" t="s">
         <v>196</v>
       </c>
@@ -3267,7 +3271,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" hidden="1" spans="1:3">
       <c r="A115" t="s">
         <v>151</v>
       </c>
@@ -3278,7 +3282,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" hidden="1" spans="1:3">
       <c r="A116" t="s">
         <v>211</v>
       </c>
@@ -3289,7 +3293,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" hidden="1" spans="1:3">
       <c r="A117" t="s">
         <v>213</v>
       </c>
@@ -3300,7 +3304,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" hidden="1" spans="1:3">
       <c r="A118" t="s">
         <v>215</v>
       </c>
@@ -3311,7 +3315,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" hidden="1" spans="1:3">
       <c r="A119" t="s">
         <v>190</v>
       </c>
@@ -3333,7 +3337,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" hidden="1" spans="1:3">
       <c r="A121" t="s">
         <v>220</v>
       </c>
@@ -3344,7 +3348,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" hidden="1" spans="1:3">
       <c r="A122" t="s">
         <v>222</v>
       </c>
@@ -3355,7 +3359,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" hidden="1" spans="1:3">
       <c r="A123" t="s">
         <v>224</v>
       </c>
@@ -3366,7 +3370,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" hidden="1" spans="1:3">
       <c r="A124" t="s">
         <v>226</v>
       </c>
@@ -3377,7 +3381,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" hidden="1" spans="1:3">
       <c r="A125" t="s">
         <v>222</v>
       </c>
@@ -3388,7 +3392,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" hidden="1" spans="1:3">
       <c r="A126" t="s">
         <v>229</v>
       </c>
@@ -3399,7 +3403,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" hidden="1" spans="1:3">
       <c r="A127" t="s">
         <v>230</v>
       </c>
@@ -3410,7 +3414,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" hidden="1" spans="1:3">
       <c r="A128" t="s">
         <v>232</v>
       </c>
@@ -3421,7 +3425,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" hidden="1" spans="1:3">
       <c r="A129" t="s">
         <v>234</v>
       </c>
@@ -3432,7 +3436,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" hidden="1" spans="1:3">
       <c r="A130" t="s">
         <v>136</v>
       </c>
@@ -3443,7 +3447,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" hidden="1" spans="1:3">
       <c r="A131" t="s">
         <v>236</v>
       </c>
@@ -3454,7 +3458,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" hidden="1" spans="1:3">
       <c r="A132" t="s">
         <v>238</v>
       </c>
@@ -3465,7 +3469,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" hidden="1" spans="1:3">
       <c r="A133" t="s">
         <v>239</v>
       </c>
@@ -3476,7 +3480,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" hidden="1" spans="1:3">
       <c r="A134" t="s">
         <v>241</v>
       </c>
@@ -3487,7 +3491,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" hidden="1" spans="1:3">
       <c r="A135" t="s">
         <v>243</v>
       </c>
@@ -3498,7 +3502,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" hidden="1" spans="1:3">
       <c r="A136" t="s">
         <v>245</v>
       </c>
@@ -3509,7 +3513,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" hidden="1" spans="1:3">
       <c r="A137" t="s">
         <v>247</v>
       </c>
@@ -3520,7 +3524,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" hidden="1" spans="1:3">
       <c r="A138" t="s">
         <v>248</v>
       </c>
@@ -3531,7 +3535,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" hidden="1" spans="1:3">
       <c r="A139" t="s">
         <v>250</v>
       </c>
@@ -3542,7 +3546,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" hidden="1" spans="1:3">
       <c r="A140" t="s">
         <v>251</v>
       </c>
@@ -3553,7 +3557,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" hidden="1" spans="1:3">
       <c r="A141" t="s">
         <v>253</v>
       </c>
@@ -3564,7 +3568,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" hidden="1" spans="1:3">
       <c r="A142" t="s">
         <v>200</v>
       </c>
@@ -3575,7 +3579,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" hidden="1" spans="1:3">
       <c r="A143" t="s">
         <v>256</v>
       </c>
@@ -3586,7 +3590,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" hidden="1" spans="1:3">
       <c r="A144" t="s">
         <v>257</v>
       </c>
@@ -3597,7 +3601,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" hidden="1" spans="1:3">
       <c r="A145" t="s">
         <v>259</v>
       </c>
@@ -3608,7 +3612,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" hidden="1" spans="1:3">
       <c r="A146" t="s">
         <v>261</v>
       </c>
@@ -3619,7 +3623,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" hidden="1" spans="1:3">
       <c r="A147" t="s">
         <v>263</v>
       </c>
@@ -3630,7 +3634,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" hidden="1" spans="1:3">
       <c r="A148" t="s">
         <v>265</v>
       </c>
@@ -3641,7 +3645,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" hidden="1" spans="1:3">
       <c r="A149" t="s">
         <v>266</v>
       </c>
@@ -3652,7 +3656,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" hidden="1" spans="1:3">
       <c r="A150" t="s">
         <v>268</v>
       </c>
@@ -3663,7 +3667,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" hidden="1" spans="1:3">
       <c r="A151" t="s">
         <v>270</v>
       </c>
@@ -3674,7 +3678,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" hidden="1" spans="1:3">
       <c r="A152" t="s">
         <v>272</v>
       </c>
@@ -3686,6 +3690,15 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C152">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Maurice Cheeks"/>
+        <filter val="Maurice Evans"/>
+      </filters>
+    </filterColumn>
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
